--- a/sensors.xlsx
+++ b/sensors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\rpi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\air_quality_drivers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3466C6F-79E5-4862-8207-EC84F722B451}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A03D54-641C-44D7-BE81-6AE7BEDA8F5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2940" windowWidth="32700" windowHeight="15435" xr2:uid="{BA7FDE00-1C1F-49FC-9C5F-6BBFA312195C}"/>
+    <workbookView xWindow="2490" yWindow="4500" windowWidth="28800" windowHeight="15435" xr2:uid="{BA7FDE00-1C1F-49FC-9C5F-6BBFA312195C}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Sensors</t>
   </si>
@@ -213,6 +213,42 @@
   <si>
     <t>temp coef 1.5 Pa/K
 no direct light exposure</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>eCO2</t>
+  </si>
+  <si>
+    <t>eTVOC</t>
+  </si>
+  <si>
+    <t>raw current</t>
+  </si>
+  <si>
+    <t>raw voltage</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>3 bins of PM</t>
+  </si>
+  <si>
+    <t>3 with diff scale</t>
+  </si>
+  <si>
+    <t>6 cdf bins</t>
+  </si>
+  <si>
+    <t>note that these are all computed from a single measurement</t>
+  </si>
+  <si>
+    <t>so completely correlated. But I don't know what the internal variables are</t>
   </si>
 </sst>
 </file>
@@ -585,16 +621,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF897B6E-13B4-4B9B-A987-808335090963}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -800,6 +837,71 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
